--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\FeedBack-Sentiment Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13560F0-405B-4176-8534-960044607843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8D44F-53B5-4C68-BCA7-7A3658668880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{89A55CE1-AE59-4A0D-9EA6-EBD9F94D1F9C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -955,6 +955,12 @@
   </si>
   <si>
     <t>can be somewhat strict so that he can control the students</t>
+  </si>
+  <si>
+    <t>bad teaching</t>
+  </si>
+  <si>
+    <t>is partial</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E8F32F-1458-4E90-B28D-BB34765B1770}">
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="B297" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4698,6 +4704,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>139</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
